--- a/Datos/repoblacev2000-2011-02.xlsx
+++ b/Datos/repoblacev2000-2011-02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmontenegro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmontenegro\Desktop\Pedro Montenegro\Proyecto-4-Pedro-M\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
     <sheet name="2011" sheetId="66" r:id="rId12"/>
     <sheet name="Hoja1" sheetId="67" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -979,7 +979,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10:M10"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -21939,7 +21939,7 @@
   <dimension ref="C1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D1" sqref="D1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21949,8 +21949,8 @@
         <v>2000</v>
       </c>
       <c r="D1">
-        <f>SUM('2000'!G10:M10)</f>
-        <v>2091852</v>
+        <f>SUM('2000'!C10)</f>
+        <v>3872343</v>
       </c>
     </row>
     <row r="2" spans="3:4">
@@ -21958,8 +21958,8 @@
         <v>2001</v>
       </c>
       <c r="D2" s="20">
-        <f>SUM('2001'!G10:M10)</f>
-        <v>2154444</v>
+        <f>SUM('2001'!C10)</f>
+        <v>3953387</v>
       </c>
     </row>
     <row r="3" spans="3:4">
@@ -21967,8 +21967,8 @@
         <v>2002</v>
       </c>
       <c r="D3" s="20">
-        <f>SUM('2002'!G10:M10)</f>
-        <v>2204851</v>
+        <f>SUM('2002'!C10)</f>
+        <v>4022426</v>
       </c>
     </row>
     <row r="4" spans="3:4">
@@ -21976,8 +21976,8 @@
         <v>2003</v>
       </c>
       <c r="D4">
-        <f>SUM('2003'!G10:M10)</f>
-        <v>2251721</v>
+        <f>SUM('2003'!C10)</f>
+        <v>4086400</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -21985,8 +21985,8 @@
         <v>2004</v>
       </c>
       <c r="D5">
-        <f>SUM('2003'!G10:M10)</f>
-        <v>2251721</v>
+        <f>SUM('2003'!C10)</f>
+        <v>4086400</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -21994,8 +21994,8 @@
         <v>2005</v>
       </c>
       <c r="D6">
-        <f>SUM('2005'!G10:M10)</f>
-        <v>2345431</v>
+        <f>SUM('2005'!C10)</f>
+        <v>4215244</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -22003,8 +22003,8 @@
         <v>2006</v>
       </c>
       <c r="D7">
-        <f>SUM('2006'!G10:M10)</f>
-        <v>2387230</v>
+        <f>SUM('2006'!C10)</f>
+        <v>4278653</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -22012,8 +22012,8 @@
         <v>2007</v>
       </c>
       <c r="D8">
-        <f>SUM('2007'!G10:M10)</f>
-        <v>2426356</v>
+        <f>SUM('2007'!C10)</f>
+        <v>4340387</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -22021,8 +22021,8 @@
         <v>2008</v>
       </c>
       <c r="D9">
-        <f>SUM('2008'!G10:M10)</f>
-        <v>2465571</v>
+        <f>SUM('2008'!C10)</f>
+        <v>4404089</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -22030,8 +22030,8 @@
         <v>2009</v>
       </c>
       <c r="D10">
-        <f>SUM('2009'!G10:M10)</f>
-        <v>2501485</v>
+        <f>SUM('2009'!C10)</f>
+        <v>4469336</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -22039,8 +22039,8 @@
         <v>2010</v>
       </c>
       <c r="D11">
-        <f>SUM('2010'!G10:M10)</f>
-        <v>2535125</v>
+        <f>SUM('2010'!C10)</f>
+        <v>4533894</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -22048,8 +22048,8 @@
         <v>2011</v>
       </c>
       <c r="D12">
-        <f>SUM('2011'!G10:M10)</f>
-        <v>2566589</v>
+        <f>SUM('2011'!C10)</f>
+        <v>4592147</v>
       </c>
     </row>
   </sheetData>
